--- a/Processes/Sales/Calculations/Default Sales Price.xlsx
+++ b/Processes/Sales/Calculations/Default Sales Price.xlsx
@@ -1,43 +1,551 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28565" windowHeight="16200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="English" sheetId="2" r:id="rId1"/>
+    <sheet name="German" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>%-Amount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Applicable material</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Material overheads</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Total material costs</t>
+  </si>
+  <si>
+    <t>Direct labor costs</t>
+  </si>
+  <si>
+    <t>Factory overheads</t>
+  </si>
+  <si>
+    <t>Other direct manufacturing costs</t>
+  </si>
+  <si>
+    <t>Manufacturing costs</t>
+  </si>
+  <si>
+    <t>Administration overheads</t>
+  </si>
+  <si>
+    <t>Sales overheads</t>
+  </si>
+  <si>
+    <t>Other direct sales costs</t>
+  </si>
+  <si>
+    <t>Cost price</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Cash sale price</t>
+  </si>
+  <si>
+    <t>Cashback</t>
+  </si>
+  <si>
+    <t>Commission fee</t>
+  </si>
+  <si>
+    <t>Target selling price</t>
+  </si>
+  <si>
+    <t>Customer discounts</t>
+  </si>
+  <si>
+    <t>Sales price (net)</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Sales price (gross)</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>%-Satz</t>
+  </si>
+  <si>
+    <t>Betrag</t>
+  </si>
+  <si>
+    <t>Fertigungsmaterial</t>
+  </si>
+  <si>
+    <t>Materialgemeinkosten</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>Fertigungslöhne</t>
+  </si>
+  <si>
+    <t>Fertigungsgemeinkosten</t>
+  </si>
+  <si>
+    <t>Sondereinzelkosten der Fertigung</t>
+  </si>
+  <si>
+    <t>Herstellkosten</t>
+  </si>
+  <si>
+    <t>Verwaltungsgemeinkosten</t>
+  </si>
+  <si>
+    <t>Vertriebsgemeinkosten</t>
+  </si>
+  <si>
+    <t>Sondereinzelkosten des Vertriebs</t>
+  </si>
+  <si>
+    <t>Selbstkosten</t>
+  </si>
+  <si>
+    <t>Gewinnzuschlag</t>
+  </si>
+  <si>
+    <t>Barverkaufspreis</t>
+  </si>
+  <si>
+    <t>Kundenskonto</t>
+  </si>
+  <si>
+    <t>Vertreterprovision</t>
+  </si>
+  <si>
+    <t>Zielverkaufspreis</t>
+  </si>
+  <si>
+    <t>Kundenrabatt</t>
+  </si>
+  <si>
+    <t>Angebotspreis (netto)</t>
+  </si>
+  <si>
+    <t>Mehrwertsteuer</t>
+  </si>
+  <si>
+    <t>Angebotspreis (brutto)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,24 +553,355 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="47" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00E2EFDA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +985,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +1159,618 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="47.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.7142857142857"/>
+    <col min="7" max="9" width="12.5714285714286"/>
+    <col min="11" max="11" width="10.4285714285714"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="12">
+        <f>+E5*D6</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13">
+        <f>+SUM(E5:E6)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="12">
+        <f>+E9*D10</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13">
+        <f>+SUM(E7:E11)</f>
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="12">
+        <f>+E12*D14</f>
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="12">
+        <f>+E12*D15</f>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13">
+        <f>+SUM(E12:E16)</f>
+        <v>2108.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="E19" s="12">
+        <f>+E17*D19</f>
+        <v>147.6125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13">
+        <f>+SUM(E17:E19)</f>
+        <v>2256.3625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E22" s="12">
+        <f>+E20/(1-D22-D23)*D22</f>
+        <v>47.5023684210526</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="12">
+        <f>+E20/(1-D22-D23)*D23</f>
+        <v>71.2535526315789</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13">
+        <f>+SUM(E20:E23)</f>
+        <v>2375.11842105263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E26" s="12">
+        <f>+E24/(1-D26)*D26</f>
+        <v>206.532036613272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="13">
+        <f>+SUM(E24:E26)</f>
+        <v>2581.6504576659</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="E29" s="12">
+        <f>+E27*D29</f>
+        <v>490.513586956522</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14">
+        <f>+SUM(E27:E29)</f>
+        <v>3072.16404462243</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="47.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="10.7142857142857"/>
+    <col min="7" max="9" width="12.5714285714286"/>
+    <col min="11" max="11" width="10.4285714285714"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="12">
+        <f>+E5*D6</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13">
+        <f>+SUM(E5:E6)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="12">
+        <f>+E9*D10</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="13">
+        <f>+SUM(E7:E11)</f>
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="12">
+        <f>+E12*D14</f>
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="12">
+        <f>+E12*D15</f>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13">
+        <f>+SUM(E12:E16)</f>
+        <v>2108.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="E19" s="12">
+        <f>+E17*D19</f>
+        <v>147.6125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13">
+        <f>+SUM(E17:E19)</f>
+        <v>2256.3625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E22" s="12">
+        <f>+E20/(1-D22-D23)*D22</f>
+        <v>47.5023684210526</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="12">
+        <f>+E20/(1-D22-D23)*D23</f>
+        <v>71.2535526315789</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13">
+        <f>+SUM(E20:E23)</f>
+        <v>2375.11842105263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E26" s="12">
+        <f>+E24/(1-D26)*D26</f>
+        <v>206.532036613272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="13">
+        <f>+SUM(E24:E26)</f>
+        <v>2581.6504576659</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="E29" s="12">
+        <f>+E27*D29</f>
+        <v>490.513586956522</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14">
+        <f>+SUM(E27:E29)</f>
+        <v>3072.16404462243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Processes/Sales/Calculations/Default Sales Price.xlsx
+++ b/Processes/Sales/Calculations/Default Sales Price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eichhornd\Desktop\Projekte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Sales\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F57905-7C95-40B5-B8E0-8ADFF19B2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26613C-07FA-4AA9-BBBA-1CA58A72406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="2" r:id="rId1"/>
@@ -186,7 +186,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -200,7 +200,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,12 +239,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,28 +286,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,32 +587,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="47.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="9" width="12.54296875" style="1"/>
+    <col min="7" max="9" width="12.5703125" style="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="10.453125" style="1"/>
+    <col min="11" max="11" width="10.42578125" style="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -896,14 +895,14 @@
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
         <f>+SUM(E33:E35)</f>
         <v>3072.1640446224255</v>
       </c>
@@ -918,27 +917,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="47.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1222,14 +1220,14 @@
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
         <f>+SUM(E33:E35)</f>
         <v>3072.1640446224255</v>
       </c>

--- a/Processes/Sales/Calculations/Default Sales Price.xlsx
+++ b/Processes/Sales/Calculations/Default Sales Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Sales\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26613C-07FA-4AA9-BBBA-1CA58A72406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E597B3B-0FF9-47A9-8478-0DCD3DFE5F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -585,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E37"/>
+  <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,56 +602,68 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="2:5">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="5" spans="2:5">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3">
-        <v>1000</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="E5" s="6">
+        <f>+E4*D5</f>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="6">
-        <f>+E5*D6</f>
-        <v>450</v>
-      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
-        <f>+SUM(E5:E6)</f>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10">
+        <f>+SUM(E4:E5)</f>
         <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -660,11 +671,14 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3">
-        <v>200</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="6">
+        <f>+E9*D10</f>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -672,42 +686,42 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="6">
-        <f>+E10*D11</f>
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
-        <f>+SUM(E8:E12)</f>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10">
+        <f>+SUM(E7:E11)</f>
         <v>1825</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="6">
+        <f>+E13*D15</f>
+        <v>182.5</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -715,14 +729,14 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E16" s="6">
-        <f>+E14*D16</f>
-        <v>182.5</v>
+        <f>+E13*D16</f>
+        <v>91.25</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -730,73 +744,73 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="6">
-        <f>+E14*D17</f>
-        <v>91.25</v>
+        <v>14</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
-        <f>+SUM(E14:E18)</f>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10">
+        <f>+SUM(E13:E17)</f>
         <v>2108.75</v>
       </c>
     </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <f>+E19*D21</f>
+        <v>147.61250000000001</v>
+      </c>
+    </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E22" s="6">
-        <f>+E20*D22</f>
-        <v>147.61250000000001</v>
-      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10">
-        <f>+SUM(E20:E22)</f>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10">
+        <f>+SUM(E19:E21)</f>
         <v>2256.3625000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E25" s="6">
+        <f>+E23/(1-D25-D26)*D25</f>
+        <v>47.502368421052637</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -804,106 +818,91 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E26" s="6">
-        <f>+E24/(1-D26-D27)*D26</f>
-        <v>47.502368421052637</v>
+        <f>+E23/(1-D25-D26)*D26</f>
+        <v>71.253552631578941</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="E27" s="6">
-        <f>+E24/(1-D26-D27)*D27</f>
-        <v>71.253552631578941</v>
-      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10">
-        <f>+SUM(E24:E27)</f>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10">
+        <f>+SUM(E23:E26)</f>
         <v>2375.1184210526317</v>
       </c>
     </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E30" s="6">
+        <f>+E28/(1-D30)*D30</f>
+        <v>206.53203661327234</v>
+      </c>
+    </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="E31" s="6">
-        <f>+E29/(1-D31)*D31</f>
-        <v>206.53203661327234</v>
-      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10">
-        <f>+SUM(E29:E31)</f>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10">
+        <f>+SUM(E28:E30)</f>
         <v>2581.650457665904</v>
       </c>
     </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E34" s="6">
+        <f>+E32*D34</f>
+        <v>490.51358695652175</v>
+      </c>
+    </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="E35" s="6">
-        <f>+E33*D35</f>
-        <v>490.51358695652175</v>
-      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11">
-        <f>+SUM(E33:E35)</f>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <f>+SUM(E32:E34)</f>
         <v>3072.1640446224255</v>
       </c>
     </row>
